--- a/data.xlsx
+++ b/data.xlsx
@@ -34,7 +34,7 @@
     <x:t>moo</x:t>
   </x:si>
   <x:si>
-    <x:t>Wed Nov 27 2019 11:38:41 GMT-0500 (Peru Standard Time)</x:t>
+    <x:t>Fri Nov 29 2019 11:50:16 GMT-0500 (Peru Standard Time)</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -34,7 +34,7 @@
     <x:t>moo</x:t>
   </x:si>
   <x:si>
-    <x:t>Fri Nov 29 2019 11:50:16 GMT-0500 (Peru Standard Time)</x:t>
+    <x:t>Fri Nov 29 2019 17:55:07 GMT-0500 (Peru Standard Time)</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -34,7 +34,7 @@
     <x:t>moo</x:t>
   </x:si>
   <x:si>
-    <x:t>Fri Nov 29 2019 17:55:07 GMT-0500 (Peru Standard Time)</x:t>
+    <x:t>Tue Dec 03 2019 16:15:49 GMT-0500 (Peru Standard Time)</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -34,7 +34,7 @@
     <x:t>moo</x:t>
   </x:si>
   <x:si>
-    <x:t>Fri Nov 29 2019 11:50:16 GMT-0500 (Peru Standard Time)</x:t>
+    <x:t>Wed Dec 04 2019 09:57:24 GMT-0500 (GMT-05:00)</x:t>
   </x:si>
 </x:sst>
 </file>
